--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>FormID</t>
   </si>
@@ -88,64 +88,34 @@
     <t>Reached</t>
   </si>
   <si>
-    <t>42b1d3ca</t>
-  </si>
-  <si>
-    <t>2db3a4c1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
+    <t>a24dc31b</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>DGPS Equipment</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>MA1323A</t>
-  </si>
-  <si>
     <t>DGPS Receiver</t>
   </si>
   <si>
-    <t>Bipod Controller Holder</t>
-  </si>
-  <si>
-    <t>DGPS Battery</t>
-  </si>
-  <si>
     <t>Trimble</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
     <t>SOI Tripura</t>
   </si>
   <si>
-    <t>SOI ASSAM</t>
+    <t>SOI TRIPURA</t>
   </si>
   <si>
     <t>Umar</t>
-  </si>
-  <si>
-    <t>Fahad</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
 </sst>
 </file>
@@ -503,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,99 +557,35 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>1.1</v>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
